--- a/public/plantillas/PlanMejora.xlsx
+++ b/public/plantillas/PlanMejora.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piper\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DFE202-31EC-47C4-B848-496DD999B9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD083E8-B92D-4AAE-860E-E43E43992691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="851" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulación Plan Mejora" sheetId="1" r:id="rId1"/>
     <sheet name="Seguimiento PlandeMejora" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Datos" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Datos" sheetId="2" r:id="rId3"/>
     <sheet name="Form. Accion Correctiva (1)" sheetId="5" r:id="rId4"/>
     <sheet name="Form. Accion Correctiva (2)" sheetId="6" r:id="rId5"/>
     <sheet name="Form. Accion Correctiva (3)" sheetId="7" r:id="rId6"/>
@@ -368,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="151">
   <si>
     <t>Fecha de inicio programada</t>
   </si>
@@ -569,9 +569,6 @@
     <t>Servicio No Conforme</t>
   </si>
   <si>
-    <t>     </t>
-  </si>
-  <si>
     <t>Corrección</t>
   </si>
   <si>
@@ -620,20 +617,6 @@
     <t>Auditoría Externa CGR</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">   Identificación y análisis de causas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(La metodología que se puede utilizar es: Los cinco porqués.)</t>
-    </r>
-  </si>
-  <si>
     <t>Proceso Estratégico
 Gestión de la Certificación
 Matriz Plan de Mejoramiento</t>
@@ -644,34 +627,6 @@
   <si>
     <t>Causa (s)
 (Solo aplica para la No conformidad, Observaciones OCI y hallazgos CGR)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   Corrección </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Aplica para NC,  las observaciones OCI y hallazgos CGR que requieran mejora inmediata )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Descripción del Hallazgo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (No Conformidad, Observaciones OCI y Hallazgos CGR)</t>
-    </r>
   </si>
   <si>
     <t>1. Poqué?</t>
@@ -862,6 +817,51 @@
   <si>
     <t>8: Aportes de la Investigación, la Innovación el Desarrollo Tecnológico y la creación, asociados al Programa Académico</t>
   </si>
+  <si>
+    <t>CENTRO DE GESTIÓN DE LA CALIDAD Y LA ACREDITACION INSTITUCIONAL</t>
+  </si>
+  <si>
+    <r>
+      <t>Descripción del Hallazgo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (No Conformidad, Observaciones OCI y Hallazgos CGR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Corrección </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Aplica para NC,  las observaciones OCI y hallazgos CGR que requieran mejora inmediata )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   Identificación y análisis de causas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(La metodología que se puede utilizar es: Los cinco porqués.)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1020,11 +1020,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -1054,8 +1049,15 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,8 +1087,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1477,6 +1485,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1484,7 +1507,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,25 +1629,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1644,12 +1667,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1660,15 +1687,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1688,88 +1727,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1867,32 +1834,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1930,20 +1934,20 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1960,13 +1964,28 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -1975,20 +1994,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2106,7 +2117,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>55222</xdr:rowOff>
     </xdr:to>
@@ -3929,15 +3940,15 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:OG465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29.42578125" style="36" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="75" style="36" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" style="36" customWidth="1"/>
     <col min="6" max="8" width="27.28515625" style="36" customWidth="1"/>
     <col min="9" max="10" width="25.7109375" style="26" customWidth="1"/>
@@ -3958,108 +3969,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:397" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
     </row>
     <row r="2" spans="1:397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="76"/>
     </row>
     <row r="3" spans="1:397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
     </row>
     <row r="4" spans="1:397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="90"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
     </row>
     <row r="5" spans="1:397" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="90"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
@@ -4069,9 +4080,9 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
       <c r="AE5" s="29"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="29"/>
@@ -4441,148 +4452,150 @@
       <c r="OG5" s="31"/>
     </row>
     <row r="6" spans="1:397" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="93"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
     </row>
     <row r="7" spans="1:397" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="97"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="91"/>
+      <c r="J7" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="83"/>
       <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:397" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="101"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
     </row>
     <row r="9" spans="1:397" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
     </row>
     <row r="10" spans="1:397" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="84" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="108"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:397" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H11" s="34" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K11" s="34" t="s">
         <v>5</v>
@@ -4597,7 +4610,7 @@
         <v>15</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>0</v>
@@ -4610,777 +4623,777 @@
       </c>
     </row>
     <row r="12" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="80"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
-      <c r="K12" s="57"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
-      <c r="N12" s="59"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="55"/>
       <c r="P12" s="55"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
     </row>
-    <row r="13" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+    <row r="13" spans="1:397" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="38" t="str">
         <f>+'Form. Accion Correctiva (1)'!C26</f>
         <v xml:space="preserve">3. Porqué?  </v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="81"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
-      <c r="K13" s="58"/>
+      <c r="K13" s="62"/>
       <c r="L13" s="56"/>
       <c r="M13" s="56"/>
-      <c r="N13" s="60"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="56"/>
       <c r="P13" s="56"/>
       <c r="Q13" s="56"/>
       <c r="R13" s="56"/>
     </row>
     <row r="14" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="80"/>
+        <v>89</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
-      <c r="N14" s="59"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
     </row>
-    <row r="15" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+    <row r="15" spans="1:397" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="38" t="str">
         <f>+'Form. Accion Correctiva (2)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="81"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
-      <c r="K15" s="58"/>
+      <c r="K15" s="62"/>
       <c r="L15" s="56"/>
       <c r="M15" s="56"/>
-      <c r="N15" s="60"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="56"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="56"/>
     </row>
     <row r="16" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="80"/>
+        <v>91</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="55"/>
       <c r="J16" s="55"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="59"/>
+      <c r="N16" s="63"/>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+    <row r="17" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="38" t="str">
         <f>+'Form. Accion Correctiva (3)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="81"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
-      <c r="K17" s="58"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="56"/>
       <c r="M17" s="56"/>
-      <c r="N17" s="60"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="56"/>
       <c r="P17" s="56"/>
       <c r="Q17" s="56"/>
       <c r="R17" s="56"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="142"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="80"/>
+        <v>92</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="55"/>
       <c r="J18" s="55"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
-      <c r="N18" s="59"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="144"/>
+    <row r="19" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="38" t="str">
         <f>+'Form. Accion Correctiva (4)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="81"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
-      <c r="K19" s="58"/>
+      <c r="K19" s="62"/>
       <c r="L19" s="56"/>
       <c r="M19" s="56"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="56"/>
       <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="142"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="80"/>
+        <v>93</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
-      <c r="N20" s="59"/>
+      <c r="N20" s="63"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="144"/>
+    <row r="21" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="38" t="str">
         <f>+'Form. Accion Correctiva (5)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="81"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="56"/>
       <c r="M21" s="56"/>
-      <c r="N21" s="60"/>
+      <c r="N21" s="64"/>
       <c r="O21" s="56"/>
       <c r="P21" s="56"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="142"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="140"/>
       <c r="E22" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="80"/>
+        <v>94</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
-      <c r="N22" s="59"/>
+      <c r="N22" s="63"/>
       <c r="O22" s="55"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
       <c r="R22" s="55"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="144"/>
+    <row r="23" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="38" t="str">
         <f>+'Form. Accion Correctiva (6)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="81"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
-      <c r="K23" s="58"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="56"/>
       <c r="M23" s="56"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="64"/>
       <c r="O23" s="56"/>
       <c r="P23" s="56"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="142"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="80"/>
+        <v>95</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
-      <c r="K24" s="57"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
-      <c r="N24" s="59"/>
+      <c r="N24" s="63"/>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="144"/>
+    <row r="25" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="38" t="str">
         <f>+'Form. Accion Correctiva (7)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="81"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="56"/>
       <c r="J25" s="56"/>
-      <c r="K25" s="58"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="56"/>
       <c r="M25" s="56"/>
-      <c r="N25" s="60"/>
+      <c r="N25" s="64"/>
       <c r="O25" s="56"/>
       <c r="P25" s="56"/>
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="142"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="140"/>
       <c r="E26" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="80"/>
+        <v>96</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
-      <c r="K26" s="57"/>
+      <c r="K26" s="61"/>
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
-      <c r="N26" s="59"/>
+      <c r="N26" s="63"/>
       <c r="O26" s="55"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="144"/>
+    <row r="27" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="38" t="str">
         <f>+'Form. Accion Correctiva (8)'!C26</f>
         <v>3. Porqué?</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="81"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="56"/>
       <c r="J27" s="56"/>
-      <c r="K27" s="58"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="56"/>
       <c r="M27" s="56"/>
-      <c r="N27" s="60"/>
+      <c r="N27" s="64"/>
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="56"/>
       <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="142"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="140"/>
       <c r="E28" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="80"/>
+        <v>98</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
-      <c r="K28" s="57"/>
+      <c r="K28" s="61"/>
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
-      <c r="N28" s="59"/>
+      <c r="N28" s="63"/>
       <c r="O28" s="55"/>
       <c r="P28" s="55"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="144"/>
+    <row r="29" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="38" t="str">
         <f>+'Form. Accion Correctiva (9)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="81"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="60"/>
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
-      <c r="K29" s="58"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="56"/>
       <c r="M29" s="56"/>
-      <c r="N29" s="60"/>
+      <c r="N29" s="64"/>
       <c r="O29" s="56"/>
       <c r="P29" s="56"/>
       <c r="Q29" s="56"/>
       <c r="R29" s="56"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="142"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="140"/>
       <c r="E30" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="80"/>
+        <v>99</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
-      <c r="K30" s="57"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
-      <c r="N30" s="59"/>
+      <c r="N30" s="63"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="144"/>
+    <row r="31" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="38" t="str">
         <f>+'Form. Accion Correctiva (10)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="81"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
-      <c r="K31" s="58"/>
+      <c r="K31" s="62"/>
       <c r="L31" s="56"/>
       <c r="M31" s="56"/>
-      <c r="N31" s="60"/>
+      <c r="N31" s="64"/>
       <c r="O31" s="56"/>
       <c r="P31" s="56"/>
       <c r="Q31" s="56"/>
       <c r="R31" s="56"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="142"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="140"/>
       <c r="E32" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="80"/>
+        <v>100</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="57"/>
+      <c r="K32" s="61"/>
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
-      <c r="N32" s="59"/>
+      <c r="N32" s="63"/>
       <c r="O32" s="55"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="144"/>
+    <row r="33" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="38" t="str">
         <f>+'Form. Accion Correctiva (11)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="81"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="56"/>
       <c r="J33" s="56"/>
-      <c r="K33" s="58"/>
+      <c r="K33" s="62"/>
       <c r="L33" s="56"/>
       <c r="M33" s="56"/>
-      <c r="N33" s="60"/>
+      <c r="N33" s="64"/>
       <c r="O33" s="56"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="56"/>
       <c r="R33" s="56"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="142"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="140"/>
       <c r="E34" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="80"/>
+        <v>101</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="57"/>
+      <c r="K34" s="61"/>
       <c r="L34" s="55"/>
       <c r="M34" s="55"/>
-      <c r="N34" s="59"/>
+      <c r="N34" s="63"/>
       <c r="O34" s="55"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="143"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="144"/>
+    <row r="35" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="38" t="str">
         <f>+'Form. Accion Correctiva (12)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="81"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="56"/>
       <c r="J35" s="56"/>
-      <c r="K35" s="58"/>
+      <c r="K35" s="62"/>
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
-      <c r="N35" s="60"/>
+      <c r="N35" s="64"/>
       <c r="O35" s="56"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="56"/>
       <c r="R35" s="56"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="142"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="140"/>
       <c r="E36" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="80"/>
+        <v>102</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="55"/>
       <c r="J36" s="55"/>
-      <c r="K36" s="57"/>
+      <c r="K36" s="61"/>
       <c r="L36" s="55"/>
       <c r="M36" s="55"/>
-      <c r="N36" s="59"/>
+      <c r="N36" s="63"/>
       <c r="O36" s="55"/>
       <c r="P36" s="55"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="144"/>
+    <row r="37" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="38" t="str">
         <f>+'Form. Accion Correctiva (13)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="81"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="56"/>
       <c r="J37" s="56"/>
-      <c r="K37" s="58"/>
+      <c r="K37" s="62"/>
       <c r="L37" s="56"/>
       <c r="M37" s="56"/>
-      <c r="N37" s="60"/>
+      <c r="N37" s="64"/>
       <c r="O37" s="56"/>
       <c r="P37" s="56"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="52"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="142"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="140"/>
       <c r="E38" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="80"/>
+        <v>102</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
-      <c r="K38" s="57"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="55"/>
       <c r="M38" s="55"/>
-      <c r="N38" s="59"/>
+      <c r="N38" s="63"/>
       <c r="O38" s="55"/>
       <c r="P38" s="55"/>
       <c r="Q38" s="55"/>
       <c r="R38" s="55"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="144"/>
+    <row r="39" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="38" t="str">
         <f>+'Form. Accion Correctiva (14)'!C26</f>
         <v xml:space="preserve">3. Porqué? </v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="81"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="56"/>
       <c r="J39" s="56"/>
-      <c r="K39" s="58"/>
+      <c r="K39" s="62"/>
       <c r="L39" s="56"/>
       <c r="M39" s="56"/>
-      <c r="N39" s="60"/>
+      <c r="N39" s="64"/>
       <c r="O39" s="56"/>
       <c r="P39" s="56"/>
       <c r="Q39" s="56"/>
       <c r="R39" s="56"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="64" t="s">
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="64" t="s">
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="64" t="s">
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="66"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="94"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="63"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="99"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="100"/>
+      <c r="R41" s="101"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="61"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="63"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="101"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="63"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="101"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="63"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="100"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="100"/>
+      <c r="R44" s="101"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="63"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="100"/>
+      <c r="P45" s="100"/>
+      <c r="Q45" s="100"/>
+      <c r="R45" s="101"/>
     </row>
     <row r="48" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" s="35"/>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
@@ -5397,9 +5410,11 @@
       <c r="C49" s="45"/>
       <c r="D49" s="44"/>
       <c r="E49" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="50"/>
+        <v>142</v>
+      </c>
+      <c r="F49" s="52">
+        <v>45950.510818287039</v>
+      </c>
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
       <c r="S49" s="47"/>
@@ -5494,7 +5509,7 @@
       <c r="C50" s="45"/>
       <c r="D50" s="44"/>
       <c r="E50" s="50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F50" s="50"/>
       <c r="G50" s="44"/>
@@ -5591,7 +5606,7 @@
       <c r="C51" s="45"/>
       <c r="D51" s="44"/>
       <c r="E51" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F51" s="50"/>
       <c r="G51" s="44"/>
@@ -45015,36 +45030,222 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="270">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:R39"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="R36:R37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="A40:C45"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D1:R6"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="J7:R7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C6"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
     <mergeCell ref="P34:P35"/>
     <mergeCell ref="Q34:Q35"/>
     <mergeCell ref="R34:R35"/>
@@ -45069,222 +45270,36 @@
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D1:R6"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="J7:R7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:C6"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="A40:C45"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J39" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -45332,25 +45347,25 @@
           <x14:formula1>
             <xm:f>Datos!$I$7:$I$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B38 B36 B34 B32 B30 B28 B26 B24 B22 B20 B18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>Datos!$D$6:$D$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>C18:C39</xm:sqref>
+          <xm:sqref>B12:B39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Datos!$C$6:$C$16</xm:f>
           </x14:formula1>
-          <xm:sqref>A12:A39 B12:D17</xm:sqref>
+          <xm:sqref>A12:A39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Datos!$L$6:$L$9</xm:f>
           </x14:formula1>
           <xm:sqref>I41:L45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8467A04-3B07-4267-9C78-939E46F2BA38}">
+          <x14:formula1>
+            <xm:f>Datos!$D$6:$D$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -45378,17 +45393,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -45408,18 +45423,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -45433,100 +45448,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D24</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -45538,65 +45547,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -45607,6 +45603,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -45638,17 +45641,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -45668,18 +45671,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -45693,100 +45696,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -45798,65 +45795,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -45867,6 +45851,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
@@ -45898,17 +45889,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -45928,18 +45919,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -45953,100 +45944,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D28</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -46058,65 +46043,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -46127,6 +46099,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -46158,17 +46137,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -46188,18 +46167,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -46213,100 +46192,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D30</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -46318,65 +46291,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -46387,6 +46347,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -46418,17 +46385,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -46448,18 +46415,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -46473,100 +46440,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D32</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -46578,65 +46539,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -46647,6 +46595,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
@@ -46678,17 +46633,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -46708,18 +46663,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -46733,100 +46688,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D34</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -46838,65 +46787,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -46907,6 +46843,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
@@ -46938,17 +46881,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -46968,18 +46911,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -46993,100 +46936,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D36</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -47098,65 +47035,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -47167,6 +47091,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
@@ -47198,17 +47129,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -47228,18 +47159,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -47253,100 +47184,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D38</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -47358,65 +47283,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -47427,6 +47339,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
@@ -47453,51 +47372,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>120</v>
+      <c r="A1" s="70" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="70"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -47557,258 +47476,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="119"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="119"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="113"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="113"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="119"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="113"/>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="122"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="116"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="K7" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="124"/>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="125"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
       <c r="Q8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="120" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="112" t="s">
+      <c r="Q9" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="112" t="s">
+      <c r="R9" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="T10" s="109" t="s">
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="T10" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="109"/>
+      <c r="U10" s="122"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -47865,8 +47784,8 @@
         <v>#REF!</v>
       </c>
       <c r="R11" s="2"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="e">
@@ -47926,8 +47845,8 @@
         <v>#REF!</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
@@ -47987,10 +47906,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="T13" s="109" t="s">
+      <c r="T13" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="109"/>
+      <c r="U13" s="122"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
@@ -48050,8 +47969,8 @@
         <v>#VALUE!</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="e">
@@ -48111,8 +48030,8 @@
         <v>#REF!</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="e">
@@ -59209,6 +59128,13 @@
   </sheetData>
   <autoFilter ref="A9:R10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="23">
+    <mergeCell ref="T10:U12"/>
+    <mergeCell ref="T13:U15"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
     <mergeCell ref="A1:R6"/>
     <mergeCell ref="K7:R7"/>
     <mergeCell ref="A9:A10"/>
@@ -59225,13 +59151,6 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="T10:U12"/>
-    <mergeCell ref="T13:U15"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
   </mergeCells>
   <conditionalFormatting sqref="O9:O10">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
@@ -59302,7 +59221,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>18</v>
@@ -59317,18 +59236,18 @@
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>14</v>
@@ -59343,10 +59262,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -59354,7 +59273,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -59367,10 +59286,10 @@
         <v>3</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -59378,7 +59297,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
@@ -59391,18 +59310,18 @@
         <v>4</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>13</v>
@@ -59415,18 +59334,18 @@
         <v>5</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>47</v>
@@ -59441,7 +59360,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>63</v>
@@ -59456,10 +59375,10 @@
     </row>
     <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -59470,10 +59389,10 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -59484,10 +59403,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -59498,10 +59417,10 @@
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -59513,7 +59432,7 @@
     <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -59560,17 +59479,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -59590,18 +59509,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -59615,19 +59534,19 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="135">
+      <c r="C12" s="129">
         <f>+'Formulación Plan Mejora'!D12</f>
         <v>0</v>
       </c>
@@ -59640,75 +59559,69 @@
       <c r="J12" s="130"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -59720,58 +59633,58 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C12:J12"/>
@@ -59783,12 +59696,6 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -59819,17 +59726,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -59849,18 +59756,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -59874,16 +59781,16 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="130">
@@ -59899,75 +59806,69 @@
       <c r="J12" s="130"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -59979,65 +59880,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -60048,6 +59936,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -60079,17 +59974,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -60109,18 +60004,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -60134,16 +60029,16 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="130">
@@ -60159,75 +60054,69 @@
       <c r="J12" s="130"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -60239,65 +60128,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -60308,6 +60184,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -60339,17 +60222,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -60369,18 +60252,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -60394,16 +60277,16 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="130">
@@ -60419,75 +60302,69 @@
       <c r="J12" s="130"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -60499,65 +60376,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -60568,6 +60432,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -60599,17 +60470,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -60629,18 +60500,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -60654,100 +60525,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="138">
+      <c r="C12" s="137">
         <f>+'Formulación Plan Mejora'!D22</f>
         <v>0</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -60759,65 +60624,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -60828,6 +60680,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -60859,17 +60718,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="C3" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="19"/>
@@ -60889,18 +60748,18 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -60914,100 +60773,94 @@
       <c r="C9" s="17"/>
     </row>
     <row r="11" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
+      <c r="C11" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
     </row>
     <row r="12" spans="3:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <f>+'Formulación Plan Mejora'!D22</f>
         <v>0</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="137" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
+      <c r="C13" s="133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
     </row>
     <row r="22" spans="3:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="130"/>
@@ -61019,65 +60872,52 @@
     </row>
     <row r="24" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="126"/>
+        <v>84</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="C26" s="127" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="C26" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
     </row>
     <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="C29" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C26:J26"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="C11:J11"/>
@@ -61088,6 +60928,13 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K28" location="'Formulación PlanMejora'!A1" display="Regresar" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
